--- a/tabular/eve/epv-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-refseqs-side-data.xlsx
@@ -148,8 +148,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="721">
+  <cellStyleXfs count="723">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -879,7 +881,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="721">
+  <cellStyles count="723">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1240,6 +1242,7 @@
     <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1600,6 +1603,7 @@
     <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1932,7 +1936,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/eve/epv-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-refseqs-side-data.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Parvoviridae-GLUE/tabular/eve/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C94877-AFBA-8C41-BEE1-57899F9F1345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="240" windowWidth="30860" windowHeight="25440" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>virus_name</t>
   </si>
@@ -43,9 +49,6 @@
     <t>host_species</t>
   </si>
   <si>
-    <t>dependo.1-macropus</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -60,11 +63,20 @@
   <si>
     <t>Monodelphis domestica</t>
   </si>
+  <si>
+    <t>dependo.0-macropus</t>
+  </si>
+  <si>
+    <t>dependo.1-whippomorpha</t>
+  </si>
+  <si>
+    <t>Whippomorpha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1608,6 +1620,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1932,14 +1952,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -1949,9 +1969,9 @@
     <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1969,12 +1989,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -1984,25 +2004,43 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2017,12 +2055,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/tabular/eve/epv-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568E1D68-415B-754C-BBE1-9153BF9603C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B35FC8-DE40-D441-A97C-BD00B5FB1DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="26460" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16120" yWindow="7160" windowWidth="26460" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
@@ -2000,13 +2000,13 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="A1:M7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>

--- a/tabular/eve/epv-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B35FC8-DE40-D441-A97C-BD00B5FB1DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB83A49F-84AE-7C43-8564-47DB6AED2834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="7160" windowWidth="26460" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Parvovirinae</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>Monodelphis domestica</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>proto.1-rattus-con</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
   </si>
 </sst>
 </file>
@@ -2000,7 +2000,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B4" sqref="A1:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2020,22 +2020,22 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
@@ -2044,88 +2044,88 @@
         <v>1</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
@@ -2133,34 +2133,34 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="1"/>
@@ -2168,34 +2168,34 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -2203,79 +2203,79 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="M7" s="1"/>
     </row>

--- a/tabular/eve/epv-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB83A49F-84AE-7C43-8564-47DB6AED2834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50907891-807B-2F46-A0D6-95D04EF5C8F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16120" yWindow="7160" windowWidth="26460" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -119,13 +119,37 @@
   </si>
   <si>
     <t>sequenceID</t>
+  </si>
+  <si>
+    <t>erthryo.1-indri</t>
+  </si>
+  <si>
+    <t>erthryo.2-dolichotis_patagonum</t>
+  </si>
+  <si>
+    <t>Erythroparvovirus</t>
+  </si>
+  <si>
+    <t>erthryo.2-dolichotis</t>
+  </si>
+  <si>
+    <t>proto.13-monodelphis</t>
+  </si>
+  <si>
+    <t>proto.14-tamandua</t>
+  </si>
+  <si>
+    <t>Tamandua</t>
+  </si>
+  <si>
+    <t>Xenarthra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,8 +197,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +225,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBAD8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -928,12 +966,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1664,6 +1713,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBAD8E8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1997,16 +2051,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:M7"/>
+      <selection activeCell="G9" sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
@@ -2063,7 +2117,7 @@
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2100,7 +2154,7 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2135,7 +2189,7 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2170,7 +2224,7 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2205,11 +2259,11 @@
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>11</v>
@@ -2244,11 +2298,11 @@
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>12</v>
@@ -2278,6 +2332,146 @@
         <v>17</v>
       </c>
       <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="7">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/eve/epv-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50907891-807B-2F46-A0D6-95D04EF5C8F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735FC931-B0C1-B04F-ABD9-BA6C7D33D049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>Xenarthra</t>
+  </si>
+  <si>
+    <t>Amdoparvovirus</t>
+  </si>
+  <si>
+    <t>amdo.2-ellobius</t>
+  </si>
+  <si>
+    <t>amdo.1-ellobius</t>
   </si>
 </sst>
 </file>
@@ -206,18 +215,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFADFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -228,6 +231,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBAD8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,25 +981,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="723">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1715,6 +1735,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FDFF"/>
       <color rgb="FFBAD8E8"/>
     </mruColors>
   </colors>
@@ -2051,16 +2072,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="A1:M11"/>
+      <selection activeCell="E10" sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
@@ -2073,407 +2094,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1"/>
+      <c r="J2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="H4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="7">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="1"/>
+      <c r="I6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="7">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="1"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="7">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="D8" s="10">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="I8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="1"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="7">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="D9" s="10">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="I9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="1"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="11">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="D10" s="10">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="H10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="11">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="10">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="H11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="11">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="D12" s="10">
+        <v>13</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="H12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="11">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="10">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="10"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M13">
+    <sortCondition ref="H2:H13"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/tabular/eve/epv-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735FC931-B0C1-B04F-ABD9-BA6C7D33D049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06EE61F-CE5D-E341-80ED-5614274CE064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:M13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2088,6 +2088,7 @@
     <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
     <col min="11" max="11" width="16.1640625" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="22.5" customWidth="1"/>

--- a/tabular/eve/epv-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06EE61F-CE5D-E341-80ED-5614274CE064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01760C0-D987-7545-BA3E-5ADDCDD955E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/epv-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01760C0-D987-7545-BA3E-5ADDCDD955E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2C5011-B7A3-BF42-8549-71F1E8E9034B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Erythroparvovirus</t>
   </si>
   <si>
-    <t>erthryo.2-dolichotis</t>
-  </si>
-  <si>
     <t>proto.13-monodelphis</t>
   </si>
   <si>
@@ -152,6 +149,18 @@
   </si>
   <si>
     <t>amdo.1-ellobius</t>
+  </si>
+  <si>
+    <t>source_name</t>
+  </si>
+  <si>
+    <t>fasta-refseqs-epv</t>
+  </si>
+  <si>
+    <t>erythro.1-indri</t>
+  </si>
+  <si>
+    <t>erythro.2-dolichotis</t>
   </si>
 </sst>
 </file>
@@ -2072,29 +2081,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G8" sqref="A1:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="22.5" customWidth="1"/>
+    <col min="2" max="3" width="19.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2102,472 +2111,511 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10">
+      <c r="E6" s="10">
         <v>1</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10">
+      <c r="E7" s="10">
         <v>2</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10">
+      <c r="E8" s="10">
         <v>4</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10">
+      <c r="E9" s="10">
         <v>3</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="10"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="11">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="10">
+      <c r="E10" s="10">
         <v>11</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="11">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="10">
+      <c r="E11" s="10">
         <v>12</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="M11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="10">
+      <c r="E12" s="10">
         <v>13</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="B13" s="11">
         <v>13</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10">
+      <c r="E13" s="10">
         <v>13</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="M13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M13">
-    <sortCondition ref="H2:H13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N13">
+    <sortCondition ref="I2:I13"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/eve/epv-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4712B3E6-C8F7-2C4C-BDA7-DA52FC6A6557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2895825-ECD0-A24A-B9CB-A4EB91EAE5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="3920" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4040" yWindow="6120" windowWidth="31400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal refset" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="280">
   <si>
     <t>virus_subfamily</t>
   </si>
@@ -1751,11 +1751,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="723">
@@ -2826,14 +2826,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="21" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
@@ -3357,9 +3357,7 @@
       <c r="D13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
+      <c r="E13" s="10"/>
       <c r="J13" s="14" t="s">
         <v>73</v>
       </c>
@@ -3387,17 +3385,19 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="11">
         <v>0</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="13" t="s">
         <v>53</v>
       </c>
@@ -3446,17 +3446,19 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="11">
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="10"/>
       <c r="F15" s="13" t="s">
         <v>64</v>
       </c>
@@ -3505,17 +3507,19 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="11">
         <v>2</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="13" t="s">
         <v>53</v>
       </c>
@@ -3562,17 +3566,19 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="11">
         <v>3</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="10"/>
       <c r="F17" s="13" t="s">
         <v>53</v>
       </c>
@@ -3621,17 +3627,19 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="11">
         <v>4</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="10"/>
       <c r="F18" s="13" t="s">
         <v>64</v>
       </c>
@@ -3680,17 +3688,19 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="11">
         <v>5</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="10"/>
       <c r="F19" s="13" t="s">
         <v>96</v>
       </c>
@@ -3739,17 +3749,19 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="11">
         <v>6</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="13" t="s">
         <v>53</v>
       </c>
@@ -3796,17 +3808,19 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="11">
         <v>7</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="13" t="s">
         <v>53</v>
       </c>
@@ -3853,17 +3867,19 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="11">
         <v>8</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="10"/>
       <c r="F22" s="13" t="s">
         <v>96</v>
       </c>
@@ -3910,17 +3926,19 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="11">
         <v>9</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="13" t="s">
         <v>53</v>
       </c>
@@ -3967,17 +3985,19 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="11">
         <v>10</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="10"/>
       <c r="F24" s="13" t="s">
         <v>119</v>
       </c>
@@ -4024,17 +4044,19 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="11">
         <v>11</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="10"/>
       <c r="F25" s="13" t="s">
         <v>53</v>
       </c>
@@ -4081,17 +4103,19 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="11">
         <v>12</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="D26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="10"/>
       <c r="F26" s="13" t="s">
         <v>53</v>
       </c>
@@ -4138,17 +4162,19 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="11">
         <v>13</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="D27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="13" t="s">
         <v>53</v>
       </c>
@@ -4197,17 +4223,19 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="11">
         <v>14</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="D28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="10"/>
       <c r="F28" s="13" t="s">
         <v>53</v>
       </c>
@@ -4256,17 +4284,19 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="11">
         <v>15</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="D29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="13" t="s">
         <v>53</v>
       </c>
@@ -4315,17 +4345,19 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="11">
         <v>16</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="D30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="10"/>
       <c r="F30" s="13" t="s">
         <v>96</v>
       </c>
@@ -4372,17 +4404,19 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="11">
         <v>17</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="D31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="10"/>
       <c r="F31" s="13" t="s">
         <v>119</v>
       </c>
@@ -4429,17 +4463,19 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="11">
         <v>20</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="D32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="13" t="s">
         <v>119</v>
       </c>
@@ -4486,17 +4522,19 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="11">
         <v>22</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="D33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="10"/>
       <c r="F33" s="13" t="s">
         <v>119</v>
       </c>
@@ -4545,17 +4583,19 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="11">
         <v>23</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="D34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="10"/>
       <c r="F34" s="13" t="s">
         <v>96</v>
       </c>
@@ -4606,17 +4646,19 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="11">
         <v>26</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="D35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="13" t="s">
         <v>96</v>
       </c>
@@ -4667,17 +4709,19 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="11">
         <v>27</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="D36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="10"/>
       <c r="F36" s="13" t="s">
         <v>53</v>
       </c>
@@ -4724,17 +4768,19 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="11">
         <v>28</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="D37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="10"/>
       <c r="F37" s="13" t="s">
         <v>64</v>
       </c>
@@ -4781,17 +4827,19 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="11">
         <v>31</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="D38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="10"/>
       <c r="F38" s="13" t="s">
         <v>58</v>
       </c>
@@ -4838,17 +4886,19 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="11">
         <v>32</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="D39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="10"/>
       <c r="F39" s="13" t="s">
         <v>64</v>
       </c>
@@ -4895,17 +4945,19 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="11">
         <v>33</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="D40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="10"/>
       <c r="F40" s="13" t="s">
         <v>64</v>
       </c>
@@ -4952,17 +5004,19 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="11">
         <v>35</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="D41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="10"/>
       <c r="F41" s="13" t="s">
         <v>53</v>
       </c>
@@ -5009,17 +5063,19 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="11">
         <v>36</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="D42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="10"/>
       <c r="F42" s="13" t="s">
         <v>119</v>
       </c>
@@ -5066,17 +5122,19 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="11">
         <v>39</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="D43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="10"/>
       <c r="F43" s="13" t="s">
         <v>64</v>
       </c>
@@ -5123,17 +5181,19 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="11">
         <v>40</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="D44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="10"/>
       <c r="F44" s="13" t="s">
         <v>64</v>
       </c>
@@ -5180,17 +5240,19 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="11">
         <v>43</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="D45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="10"/>
       <c r="F45" s="13" t="s">
         <v>53</v>
       </c>
@@ -5237,17 +5299,19 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="11">
         <v>43</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="D46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="10"/>
       <c r="F46" s="13" t="s">
         <v>53</v>
       </c>
@@ -5294,17 +5358,19 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="11">
         <v>44</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="D47" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="10"/>
       <c r="F47" s="13" t="s">
         <v>58</v>
       </c>
@@ -5353,17 +5419,19 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="11">
         <v>45</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="D48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="10"/>
       <c r="F48" s="13" t="s">
         <v>53</v>
       </c>
@@ -5410,17 +5478,19 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B49" s="11">
         <v>46</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
+      <c r="D49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="10"/>
       <c r="F49" s="13" t="s">
         <v>53</v>
       </c>
@@ -5467,17 +5537,19 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="11">
         <v>46</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
+      <c r="D50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="10"/>
       <c r="F50" s="13" t="s">
         <v>53</v>
       </c>
@@ -5524,17 +5596,19 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="11">
         <v>51</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
+      <c r="D51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="10"/>
       <c r="F51" s="13" t="s">
         <v>96</v>
       </c>
@@ -5581,17 +5655,19 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="11">
         <v>53</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="D52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="10"/>
       <c r="F52" s="13" t="s">
         <v>53</v>
       </c>
@@ -5638,17 +5714,19 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="11">
         <v>54</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
+      <c r="D53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="10"/>
       <c r="F53" s="13" t="s">
         <v>53</v>
       </c>
@@ -5695,17 +5773,19 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="11">
         <v>56</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+      <c r="D54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="10"/>
       <c r="F54" s="13" t="s">
         <v>53</v>
       </c>
@@ -5752,17 +5832,19 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="11">
         <v>57</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="D55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="10"/>
       <c r="F55" s="13" t="s">
         <v>64</v>
       </c>
@@ -5809,17 +5891,19 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="11">
         <v>58</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
+      <c r="D56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="10"/>
       <c r="F56" s="13" t="s">
         <v>119</v>
       </c>
@@ -5866,17 +5950,19 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="11">
         <v>59</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
+      <c r="D57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="10"/>
       <c r="F57" s="13" t="s">
         <v>64</v>
       </c>
@@ -5923,17 +6009,19 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="11">
         <v>60</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
+      <c r="D58" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="10"/>
       <c r="F58" s="13" t="s">
         <v>58</v>
       </c>
@@ -5980,17 +6068,19 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="11">
         <v>61</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
+      <c r="D59" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="10"/>
       <c r="F59" s="13" t="s">
         <v>58</v>
       </c>
@@ -6037,17 +6127,19 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="11">
         <v>62</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
+      <c r="D60" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="10"/>
       <c r="F60" s="13" t="s">
         <v>58</v>
       </c>
@@ -6094,17 +6186,19 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="11">
         <v>65</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+      <c r="D61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="10"/>
       <c r="F61" s="13" t="s">
         <v>64</v>
       </c>
@@ -6151,17 +6245,19 @@
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="11">
         <v>66</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
+      <c r="D62" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="10"/>
       <c r="F62" s="13" t="s">
         <v>64</v>
       </c>
@@ -6208,17 +6304,19 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B63" s="11">
         <v>500</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
+      <c r="D63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="10"/>
       <c r="F63" s="13" t="s">
         <v>276</v>
       </c>
